--- a/INTLINE/data/158/MOF/TRADE/COUN/ASEAN.xlsx
+++ b/INTLINE/data/158/MOF/TRADE/COUN/ASEAN.xlsx
@@ -4580,7 +4580,7 @@
         <v>1105800196</v>
       </c>
       <c r="TA2" t="n">
-        <v>0</v>
+        <v>1300266794</v>
       </c>
       <c r="TB2" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>1258230542</v>
       </c>
       <c r="SZ3" t="n">
-        <v>1194642413</v>
+        <v>1196168640</v>
       </c>
       <c r="TA3" t="n">
-        <v>0</v>
+        <v>1359162323</v>
       </c>
       <c r="TB3" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>178141853</v>
       </c>
       <c r="TA4" t="n">
-        <v>0</v>
+        <v>203135863</v>
       </c>
       <c r="TB4" t="n">
         <v>0</v>
@@ -9365,10 +9365,10 @@
         <v>262844747</v>
       </c>
       <c r="SZ5" t="n">
-        <v>217086426</v>
+        <v>218071094</v>
       </c>
       <c r="TA5" t="n">
-        <v>0</v>
+        <v>245882477</v>
       </c>
       <c r="TB5" t="n">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>325739879</v>
       </c>
       <c r="TA6" t="n">
-        <v>0</v>
+        <v>341168432</v>
       </c>
       <c r="TB6" t="n">
         <v>0</v>
@@ -12557,10 +12557,10 @@
         <v>259621672</v>
       </c>
       <c r="SZ7" t="n">
-        <v>265186128</v>
+        <v>265136298</v>
       </c>
       <c r="TA7" t="n">
-        <v>0</v>
+        <v>287540470</v>
       </c>
       <c r="TB7" t="n">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>183564370</v>
       </c>
       <c r="TA8" t="n">
-        <v>0</v>
+        <v>247575201</v>
       </c>
       <c r="TB8" t="n">
         <v>0</v>
@@ -15749,10 +15749,10 @@
         <v>93725228</v>
       </c>
       <c r="SZ9" t="n">
-        <v>86953331</v>
+        <v>86946053</v>
       </c>
       <c r="TA9" t="n">
-        <v>0</v>
+        <v>114758468</v>
       </c>
       <c r="TB9" t="n">
         <v>0</v>
@@ -17348,7 +17348,7 @@
         <v>153244705</v>
       </c>
       <c r="TA10" t="n">
-        <v>0</v>
+        <v>193712412</v>
       </c>
       <c r="TB10" t="n">
         <v>0</v>
@@ -18941,10 +18941,10 @@
         <v>240179479</v>
       </c>
       <c r="SZ11" t="n">
-        <v>223643513</v>
+        <v>224000121</v>
       </c>
       <c r="TA11" t="n">
-        <v>0</v>
+        <v>250735721</v>
       </c>
       <c r="TB11" t="n">
         <v>0</v>
@@ -20540,7 +20540,7 @@
         <v>376010</v>
       </c>
       <c r="TA12" t="n">
-        <v>0</v>
+        <v>962337</v>
       </c>
       <c r="TB12" t="n">
         <v>0</v>
@@ -22136,7 +22136,7 @@
         <v>30388026</v>
       </c>
       <c r="TA13" t="n">
-        <v>0</v>
+        <v>28519976</v>
       </c>
       <c r="TB13" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>114538599</v>
       </c>
       <c r="TA14" t="n">
-        <v>0</v>
+        <v>135222982</v>
       </c>
       <c r="TB14" t="n">
         <v>0</v>
@@ -25325,10 +25325,10 @@
         <v>104440052</v>
       </c>
       <c r="SZ15" t="n">
-        <v>103063796</v>
+        <v>103365970</v>
       </c>
       <c r="TA15" t="n">
-        <v>0</v>
+        <v>120219444</v>
       </c>
       <c r="TB15" t="n">
         <v>0</v>
@@ -26924,7 +26924,7 @@
         <v>140129020</v>
       </c>
       <c r="TA16" t="n">
-        <v>0</v>
+        <v>165480495</v>
       </c>
       <c r="TB16" t="n">
         <v>0</v>
@@ -28517,10 +28517,10 @@
         <v>235468601</v>
       </c>
       <c r="SZ17" t="n">
-        <v>237683139</v>
+        <v>237288267</v>
       </c>
       <c r="TA17" t="n">
-        <v>0</v>
+        <v>271341881</v>
       </c>
       <c r="TB17" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>5525037</v>
       </c>
       <c r="TA18" t="n">
-        <v>0</v>
+        <v>5547284</v>
       </c>
       <c r="TB18" t="n">
         <v>0</v>
@@ -31709,10 +31709,10 @@
         <v>16573434</v>
       </c>
       <c r="SZ19" t="n">
-        <v>16875439</v>
+        <v>17100377</v>
       </c>
       <c r="TA19" t="n">
-        <v>0</v>
+        <v>23019985</v>
       </c>
       <c r="TB19" t="n">
         <v>0</v>
@@ -33308,7 +33308,7 @@
         <v>851160</v>
       </c>
       <c r="TA20" t="n">
-        <v>0</v>
+        <v>951113</v>
       </c>
       <c r="TB20" t="n">
         <v>0</v>
@@ -34904,7 +34904,7 @@
         <v>1870886</v>
       </c>
       <c r="TA21" t="n">
-        <v>0</v>
+        <v>1862797</v>
       </c>
       <c r="TB21" t="n">
         <v>0</v>
@@ -36500,7 +36500,7 @@
         <v>3689563</v>
       </c>
       <c r="TA22" t="n">
-        <v>0</v>
+        <v>6510675</v>
       </c>
       <c r="TB22" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>9324067</v>
       </c>
       <c r="SZ23" t="n">
-        <v>11891729</v>
+        <v>12001548</v>
       </c>
       <c r="TA23" t="n">
-        <v>0</v>
+        <v>15281104</v>
       </c>
       <c r="TB23" t="n">
         <v>0</v>
